--- a/CSV-Reconcile_Process/Examples/Biotech/Reconciled/SME_Label_Not_In_The_NALT.xlsx
+++ b/CSV-Reconcile_Process/Examples/Biotech/Reconciled/SME_Label_Not_In_The_NALT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/Biotech/Reconciled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD78CA2-3B73-F64E-9928-F71AF083FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E976314-2DB4-3849-BEA4-AD81F1BC81AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21920" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Not in Nalt" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Not in Nalt'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -443,12 +446,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,11 +794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -818,690 +826,695 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C2" s="3">
+        <v>97.142857140000004</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>51.851851850000003</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="3">
+        <v>85.714285709999999</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>66.666666669999998</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>84.21052632</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>58.823529409999999</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>83.333333330000002</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>97.142857140000004</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>81.25</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>81.25</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="3">
+        <v>79.166666669999998</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>66.666666669999998</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>77.777777779999994</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="3">
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12">
-        <v>60.869565219999998</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13">
-        <v>83.333333330000002</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="3">
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>68.965517239999997</v>
+        <v>79</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="C15" s="3">
+        <v>72.727272729999996</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16">
-        <v>63.636363639999999</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="3">
+        <v>71.428571430000005</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18">
-        <v>71.428571430000005</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
+        <v>70.58823529</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>84.21052632</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="3">
+        <v>68.965517239999997</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20">
-        <v>79.166666669999998</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>66.666666669999998</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21">
-        <v>58.333333330000002</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="3">
+        <v>66.666666669999998</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>85.714285709999999</v>
+        <v>65</v>
+      </c>
+      <c r="C22" s="3">
+        <v>66.666666669999998</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23">
-        <v>77.777777779999994</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="3">
+        <v>66.666666669999998</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3">
         <v>66.666666669999998</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>53.333333330000002</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="3">
+        <v>63.636363639999999</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26">
-        <v>62.857142860000003</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="3">
+        <v>63.636363639999999</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="3">
+        <v>62.857142860000003</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>60.869565219999998</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>52.941176470000002</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="3">
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31">
-        <v>56.25</v>
+        <v>69</v>
+      </c>
+      <c r="C31" s="3">
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32">
-        <v>72.727272729999996</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="3">
+        <v>58.823529409999999</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="C33" s="3">
+        <v>58.333333330000002</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>63.636363639999999</v>
+        <v>77</v>
+      </c>
+      <c r="C34" s="3">
+        <v>58.064516130000001</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35">
-        <v>66.666666669999998</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>56.25</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36">
-        <v>58.064516130000001</v>
+        <v>66</v>
+      </c>
+      <c r="C36" s="3">
+        <v>53.333333330000002</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37">
-        <v>66.666666669999998</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="3">
+        <v>52.941176470000002</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="C38" s="3">
+        <v>51.851851850000003</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3">
         <v>50</v>
       </c>
-      <c r="C39">
-        <v>70.58823529</v>
-      </c>
       <c r="D39" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+      <sortCondition descending="1" ref="C1:C39"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E3" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E18" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
